--- a/pred_ohlcv/54_21/2019-10-18 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 LOOM ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>418035.5793</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>437612.0463</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>437612.0463</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>437612.0463</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>437612.0463</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1059146.5086</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1046541.2307</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1056764.6574</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1056764.6574</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1056872.6574</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1056872.6574</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1056872.6574</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1020774.6574</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1020882.6574</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1019383.1919</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1143656.566</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1131137.0366</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1122704.353</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1043922.7751</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1066465.9036</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>945444.7247438851</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>945444.7247438851</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1039815.837543885</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1083247.703043885</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>948126.2065438851</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>855771.2734438848</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>668514.7611438849</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>715534.7396438848</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>775787.6939438848</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>776297.6939438848</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>987475.2825438848</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>970043.6797438848</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1070397.573043885</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1070397.573043885</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1294621.080279501</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1490060.44336211</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1490060.44336211</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1118756.73176211</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1122397.22476211</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1122387.22476211</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1092066.05866211</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1345013.376162109</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1366580.054362109</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1312251.467762109</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1355157.890562109</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1355167.890562109</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1353020.742862109</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1115049.425362109</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1118480.425362109</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1112191.087762109</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1150724.809362109</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1150724.809362109</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1150724.809362109</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1176524.809362109</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1165637.819762109</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 LOOM ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>435798.1503</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>441798.1503</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>441798.1503</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>441798.1503</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>441798.1503</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>440428.1503</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>440428.1503</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>567742.1036</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1059146.5086</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1046541.2307</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1056764.6574</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1056764.6574</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1056872.6574</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1056872.6574</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1056872.6574</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1020774.6574</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1020882.6574</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1019383.1919</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1143656.566</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1131137.0366</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1122704.353</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1043922.7751</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1066465.9036</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>945444.7247438851</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>945444.7247438851</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1039815.837543885</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1083247.703043885</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>948126.2065438851</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>855771.2734438848</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>668514.7611438849</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>715534.7396438848</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>775787.6939438848</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>776297.6939438848</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>987475.2825438848</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>970043.6797438848</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1070397.573043885</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1070397.573043885</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1294621.080279501</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1490060.44336211</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1490060.44336211</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1118756.73176211</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1122397.22476211</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1122387.22476211</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1092066.05866211</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1345013.376162109</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1337587.72576211</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1366580.054362109</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1355157.890562109</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1355157.890562109</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1355167.890562109</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1353020.742862109</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1115049.425362109</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1112191.087762109</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
